--- a/data/trans_camb/P26_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P26_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-25,58</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-17,77</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>4,38</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,52</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>23,86</t>
+          <t>4,62</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>24,08</t>
+          <t>11,04</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-3,66</t>
+          <t>6,36</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,47</t>
+          <t>6,4</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>15,38</t>
+          <t>2,57</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>7,19</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>5,35</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>4,85</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-76,23; 15,58</t>
+          <t>0,0; 14,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-50,73; 62,01</t>
+          <t>0,0; 19,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,26</t>
+          <t>0,0; 18,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,16; 48,93</t>
+          <t>0,0; 16,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,81; 47,97</t>
+          <t>4,04; 22,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-35,89; 9,19</t>
+          <t>1,77; 16,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-20,55; 24,88</t>
+          <t>1,51; 17,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-9,87; 41,37</t>
+          <t>0,0; 8,46</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2,51; 14,32</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1,28; 13,96</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1,23; 11,82</t>
         </is>
       </c>
     </row>
@@ -738,17 +792,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-69,49%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -768,17 +822,32 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-37,9%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>87,78%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>159,44%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -834,6 +903,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>1,94</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4,04</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>10,17</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>25,45</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5,2</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>6,66</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4,09</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2,7</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3,56</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>5,23</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>12,46</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>29,19</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-1,3</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-1,62</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-11,33</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>5,47</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>8,4</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>9,5</t>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>7,36</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>15,84</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,83</t>
+          <t>0,0; 9,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,72</t>
+          <t>0,0; 13,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,51; 57,39</t>
+          <t>3,11; 24,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-38,91; 24,52</t>
+          <t>0,0; 65,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-39,54; 23,21</t>
+          <t>-1,8; 13,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-49,49; 12,62</t>
+          <t>-0,28; 17,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-12,29; 20,4</t>
+          <t>-1,84; 12,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,36; 23,83</t>
+          <t>-3,2; 9,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 24,66</t>
+          <t>-0,26; 8,6</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1,15; 11,26</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2,34; 15,35</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1,48; 44,06</t>
         </is>
       </c>
     </row>
@@ -969,32 +1083,47 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-5,77%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-7,18%</t>
+          <t>286,38%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-50,21%</t>
+          <t>366,78%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>61,33%</t>
+          <t>225,51%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>94,11%</t>
+          <t>148,92%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>106,48%</t>
+          <t>396,92%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>583,35%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>821,28%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1767,72%</t>
         </is>
       </c>
     </row>
@@ -1022,12 +1151,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-85,8; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-81,72; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1037,17 +1166,32 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-81,29; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-67,88; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-61,78; —</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,16</t>
+          <t>5,11</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,03</t>
+          <t>5,77</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>14,5</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>10,1</t>
+          <t>8,4</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>5,81</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>12,52</t>
+          <t>5,21</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>8,64</t>
+          <t>3,04</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>7,11</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>5,78</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>3,69</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-23,12; 13,13</t>
+          <t>0,0; 9,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,71; 23,74</t>
+          <t>1,54; 14,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,63; 22,15</t>
+          <t>1,53; 15,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-18,91; 10,83</t>
+          <t>0,0; 10,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 27,97</t>
+          <t>0,03; 9,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 23,5</t>
+          <t>3,66; 14,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-12,65; 9,68</t>
+          <t>1,51; 11,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 23,47</t>
+          <t>1,35; 11,12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 19,03</t>
+          <t>0,64; 6,86</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>3,53; 12,43</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>2,6; 10,45</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1,25; 7,93</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>112,37%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>96,8%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-2,32%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>126,13%</t>
+          <t>417,72%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>87,85%</t>
+          <t>927,84%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-1,03%</t>
+          <t>642,52%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>126,33%</t>
+          <t>575,74%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>87,17%</t>
+          <t>553,02%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1296,03%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1053,79%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>672,23%</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1427,47 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-79,33; 325,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-22,03; 743,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-39,93; 575,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-67,18; 317,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-14,97; 829,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-33,85; 623,65</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-7,08</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,53</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,28</t>
+          <t>7,76</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>5,27</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>14,42</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9,24</t>
+          <t>12,6</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>6,54</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>11,89</t>
+          <t>4,04</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>8,87</t>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>8,49</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>7,08</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>4,57</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-21,26; 1,47</t>
+          <t>-6,6; 2,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,78; 20,48</t>
+          <t>-2,49; 10,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 20,14</t>
+          <t>1,0; 15,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 12,34</t>
+          <t>-1,2; 13,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,59; 24,91</t>
+          <t>-3,75; 9,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 19,61</t>
+          <t>4,27; 21,44</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-10,2; 5,6</t>
+          <t>-1,33; 13,89</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,88; 20,96</t>
+          <t>-2,85; 12,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 16,62</t>
+          <t>-3,11; 5,19</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>3,1; 13,96</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1,43; 12,78</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-0,45; 9,95</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-68,39%</t>
+          <t>-49,03%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>63,0%</t>
+          <t>143,66%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>79,98%</t>
+          <t>296,31%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>15,92%</t>
+          <t>201,39%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>122,25%</t>
+          <t>55,23%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>78,36%</t>
+          <t>237,15%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-14,44%</t>
+          <t>123,07%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>105,94%</t>
+          <t>75,98%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>79,01%</t>
+          <t>23,96%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>208,42%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>173,9%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>112,25%</t>
         </is>
       </c>
     </row>
@@ -1444,42 +1693,57 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-59,55; 655,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-42,27; 643,4</t>
+          <t>-50,39; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-51,19; 244,26</t>
+          <t>-68,02; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,69; 456,86</t>
+          <t>-56,77; 404,98</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-17,57; 344,71</t>
+          <t>27,67; 847,91</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-61,3; 86,27</t>
+          <t>-23,03; 612,34</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,26; 306,17</t>
+          <t>-52,46; 468,49</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-11,98; 237,56</t>
+          <t>-54,26; 311,23</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>34,21; 690,39</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>9,95; 661,34</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-13,77; 491,85</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1760,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>5,23</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>7,25</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>9,02</t>
+          <t>7,98</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>6,77</t>
+          <t>8,78</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>14,84</t>
+          <t>7,1</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>5,02</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>5,86</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>11,26</t>
+          <t>7,66</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>5,7</t>
+          <t>5,88</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>2,78</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>4,94</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>8,37</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1828,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 13,31</t>
+          <t>-0,02; 13,38</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,17; 15,75</t>
+          <t>-2,85; 5,42</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,52; 16,83</t>
+          <t>1,25; 16,38</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 17,37</t>
+          <t>2,01; 18,25</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,11; 25,43</t>
+          <t>-2,23; 18,89</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 10,52</t>
+          <t>-4,4; 15,33</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,2; 12,58</t>
+          <t>-7,95; 8,88</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,82; 18,44</t>
+          <t>-2,02; 21,0</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 11,67</t>
+          <t>0,59; 13,08</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-1,93; 8,19</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0,13; 11,28</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>2,12; 17,1</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1896,62 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>319,4%</t>
+          <t>373,56%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>442,59%</t>
+          <t>93,2%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>550,75%</t>
+          <t>597,09%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>94,63%</t>
+          <t>657,01%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>207,48%</t>
+          <t>165,36%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>35,81%</t>
+          <t>116,85%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>131,27%</t>
+          <t>20,9%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>252,33%</t>
+          <t>178,33%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>127,72%</t>
+          <t>226,25%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>106,87%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>190,26%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>322,09%</t>
         </is>
       </c>
     </row>
@@ -1670,32 +1979,47 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-45,48; 662,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>8,02; 1125,95</t>
+          <t>-58,79; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-59,99; 428,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 911,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>45,66; 1029,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-18,55; 667,41</t>
+          <t>-20,29; 1865,8</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-61,79; 1229,07</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-17,65; —</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-3,05; —</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2036,62 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-2,9</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-5,04</t>
+          <t>-4,68</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>-7,15</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-3,53</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>18,39</t>
+          <t>-3,65</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-4,25</t>
+          <t>8,46</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>11,65</t>
+          <t>2,08</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>-4,12</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>2,2</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>2,2</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2104,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-13,53; 5,45</t>
+          <t>-11,9; 9,75</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-15,96; 2,39</t>
+          <t>-14,29; 2,94</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-10,86; 11,03</t>
+          <t>-9,5; 13,51</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 11,72</t>
+          <t>-18,85; -2,16</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-11,89; 0,69</t>
+          <t>-5,52; 16,07</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 52,44</t>
+          <t>-12,0; 4,17</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 6,91</t>
+          <t>-5,94; 19,08</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-10,02; -0,17</t>
+          <t>-2,84; 26,1</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 41,04</t>
+          <t>-5,5; 10,53</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-10,98; 0,49</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-5,52; 11,61</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-6,06; 12,02</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2172,62 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-35,68%</t>
+          <t>-21,47%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-61,98%</t>
+          <t>-65,47%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>15,29%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>91,92%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-76,04%</t>
+          <t>86,14%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>396,27%</t>
+          <t>-63,02%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>18,58%</t>
+          <t>53,99%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-68,44%</t>
+          <t>145,89%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>187,51%</t>
+          <t>32,47%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>-64,26%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>34,35%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>34,34%</t>
         </is>
       </c>
     </row>
@@ -1881,37 +2250,52 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-75,9; 484,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-62,38; 786,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,5; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-39,59; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-58,58; 245,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 31,48</t>
+          <t>-67,57; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-24,3; 1329,9</t>
+          <t>-66,04; 338,08</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 81,65</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-66,07; 410,5</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-72,26; 376,78</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2312,62 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>3,67</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>8,84</t>
+          <t>6,49</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>3,96</t>
+          <t>7,63</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>10,55</t>
+          <t>4,46</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>10,42</t>
+          <t>7,55</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>4,84</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>7,92</t>
+          <t>5,9</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>9,86</t>
+          <t>2,91</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>5,11</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>5,62</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>6,72</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2380,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 3,58</t>
+          <t>-0,8; 3,55</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 9,12</t>
+          <t>0,1; 5,67</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2,71; 15,4</t>
+          <t>3,3; 10,16</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 9,11</t>
+          <t>1,88; 22,8</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>4,95; 15,63</t>
+          <t>1,62; 7,75</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>3,56; 23,91</t>
+          <t>4,34; 11,17</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 5,07</t>
+          <t>1,81; 8,67</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>4,24; 11,73</t>
+          <t>2,42; 9,77</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>5,33; 18,51</t>
+          <t>0,93; 4,82</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>3,0; 7,44</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>3,49; 8,22</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>3,41; 13,77</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2448,62 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-17,96%</t>
+          <t>66,76%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>57,18%</t>
+          <t>147,25%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>137,74%</t>
+          <t>389,31%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>46,2%</t>
+          <t>458,06%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>123,03%</t>
+          <t>153,81%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>121,62%</t>
+          <t>260,46%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>23,64%</t>
+          <t>166,8%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>104,08%</t>
+          <t>203,49%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>129,62%</t>
+          <t>125,24%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>219,63%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>241,39%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>288,8%</t>
         </is>
       </c>
     </row>
@@ -2087,61 +2516,83 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-62,89; 98,9</t>
+          <t>-39,5; 554,29</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-25,31; 242,33</t>
+          <t>-8,2; 696,73</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>23,0; 358,55</t>
+          <t>114,9; 1343,07</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-10,59; 158,41</t>
+          <t>60,77; 2372,12</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>35,11; 250,59</t>
+          <t>27,54; 447,69</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>25,03; 364,38</t>
+          <t>87,32; 598,45</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-22,63; 91,8</t>
+          <t>37,88; 465,67</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>40,23; 211,51</t>
+          <t>48,69; 521,43</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>50,41; 285,55</t>
+          <t>27,89; 319,06</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>91,9; 433,21</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>107,07; 489,1</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>105,47; 761,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
